--- a/chibaharo_environment.xlsx
+++ b/chibaharo_environment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyys1\Desktop\python\tokyo-bay-fishing-ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D07C7F-5A7C-4F9F-AB0B-39773423E821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDAA79D-85A6-43BE-AB2A-6FBFE85EB892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="12510" windowHeight="15480" xr2:uid="{B6EA9BB3-7161-4C91-B3A3-420C16708EEB}"/>
+    <workbookView xWindow="1950" yWindow="720" windowWidth="12510" windowHeight="15480" xr2:uid="{B6EA9BB3-7161-4C91-B3A3-420C16708EEB}"/>
   </bookViews>
   <sheets>
     <sheet name="chibaharo_20260104-20260104" sheetId="1" r:id="rId1"/>
@@ -991,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1782C469-D821-4FFA-8475-55CD58035EAE}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1025,347 +1025,415 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>46026</v>
+        <v>46029</v>
       </c>
       <c r="B2">
-        <v>10.89</v>
+        <v>10.29</v>
       </c>
       <c r="C2">
-        <v>30.89</v>
+        <v>31.3</v>
       </c>
       <c r="D2">
-        <v>9.74</v>
+        <v>10.96</v>
       </c>
       <c r="E2">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>46026.041666666664</v>
+        <v>46029.041666666664</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>10.64</v>
       </c>
       <c r="C3">
-        <v>31.16</v>
+        <v>31.02</v>
       </c>
       <c r="D3">
-        <v>9.75</v>
+        <v>10.37</v>
       </c>
       <c r="E3">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>46026.083333333336</v>
+        <v>46029.083333333336</v>
       </c>
       <c r="B4">
-        <v>11.16</v>
+        <v>10.66</v>
       </c>
       <c r="C4">
-        <v>31.41</v>
+        <v>31.11</v>
       </c>
       <c r="D4">
-        <v>9.81</v>
+        <v>10.36</v>
       </c>
       <c r="E4">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>46026.125</v>
+        <v>46029.125</v>
       </c>
       <c r="B5">
-        <v>11.24</v>
+        <v>10.63</v>
       </c>
       <c r="C5">
-        <v>31.53</v>
+        <v>31.17</v>
       </c>
       <c r="D5">
-        <v>9.8699999999999992</v>
+        <v>10.38</v>
       </c>
       <c r="E5">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>46026.166666666664</v>
+        <v>46029.166666666664</v>
       </c>
       <c r="B6">
-        <v>11.27</v>
+        <v>10.55</v>
       </c>
       <c r="C6">
-        <v>31.58</v>
+        <v>31.22</v>
       </c>
       <c r="D6">
-        <v>9.93</v>
+        <v>10.39</v>
       </c>
       <c r="E6">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>46026.208333333336</v>
+        <v>46029.208333333336</v>
       </c>
       <c r="B7">
-        <v>11.27</v>
+        <v>10.44</v>
       </c>
       <c r="C7">
-        <v>31.59</v>
+        <v>31.22</v>
       </c>
       <c r="D7">
-        <v>9.9</v>
+        <v>10.41</v>
       </c>
       <c r="E7">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>46026.25</v>
+        <v>46029.25</v>
       </c>
       <c r="B8">
-        <v>11.09</v>
+        <v>10.48</v>
       </c>
       <c r="C8">
-        <v>31.56</v>
+        <v>31.18</v>
       </c>
       <c r="D8">
-        <v>9.8699999999999992</v>
+        <v>10.35</v>
       </c>
       <c r="E8">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>46026.291666666664</v>
+        <v>46029.291666666664</v>
       </c>
       <c r="B9">
-        <v>11.03</v>
+        <v>10.34</v>
       </c>
       <c r="C9">
-        <v>31.56</v>
+        <v>31.21</v>
       </c>
       <c r="D9">
-        <v>9.92</v>
+        <v>10.49</v>
       </c>
       <c r="E9">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>46026.333333333336</v>
+        <v>46029.333333333336</v>
       </c>
       <c r="B10">
-        <v>10.96</v>
+        <v>10.24</v>
       </c>
       <c r="C10">
-        <v>31.56</v>
+        <v>31.22</v>
       </c>
       <c r="D10">
-        <v>10.15</v>
+        <v>10.61</v>
       </c>
       <c r="E10">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>46026.375</v>
+        <v>46029.375</v>
       </c>
       <c r="B11">
-        <v>10.91</v>
+        <v>10.18</v>
       </c>
       <c r="C11">
-        <v>31.56</v>
+        <v>31.21</v>
       </c>
       <c r="D11">
-        <v>10.29</v>
+        <v>10.76</v>
       </c>
       <c r="E11">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>46026.416666666664</v>
+        <v>46029.416666666664</v>
       </c>
       <c r="B12">
-        <v>10.64</v>
+        <v>10.14</v>
       </c>
       <c r="C12">
-        <v>31.38</v>
+        <v>31.21</v>
       </c>
       <c r="D12">
-        <v>10.36</v>
+        <v>10.87</v>
       </c>
       <c r="E12">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>46026.458333333336</v>
+        <v>46029.458333333336</v>
       </c>
       <c r="B13">
-        <v>10.64</v>
+        <v>10.14</v>
       </c>
       <c r="C13">
-        <v>31.35</v>
+        <v>31.22</v>
       </c>
       <c r="D13">
-        <v>10.5</v>
+        <v>11.03</v>
       </c>
       <c r="E13">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>46026.5</v>
+        <v>46029.5</v>
       </c>
       <c r="B14">
-        <v>10.63</v>
+        <v>10.16</v>
       </c>
       <c r="C14">
-        <v>31.31</v>
+        <v>31.24</v>
       </c>
       <c r="D14">
-        <v>10.73</v>
+        <v>11.27</v>
       </c>
       <c r="E14">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>46026.541666666664</v>
+        <v>46029.541666666664</v>
       </c>
       <c r="B15">
-        <v>10.6</v>
+        <v>10.18</v>
       </c>
       <c r="C15">
-        <v>31.3</v>
+        <v>31.24</v>
       </c>
       <c r="D15">
-        <v>10.86</v>
+        <v>11.43</v>
       </c>
       <c r="E15">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>46026.583333333336</v>
+        <v>46029.583333333336</v>
       </c>
       <c r="B16">
-        <v>10.68</v>
+        <v>10.17</v>
       </c>
       <c r="C16">
-        <v>31.31</v>
+        <v>31.24</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>11.62</v>
       </c>
       <c r="E16">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>46026.625</v>
+        <v>46029.625</v>
       </c>
       <c r="B17">
-        <v>10.64</v>
+        <v>10.18</v>
       </c>
       <c r="C17">
-        <v>31.24</v>
+        <v>31.25</v>
       </c>
       <c r="D17">
-        <v>11.64</v>
+        <v>11.76</v>
       </c>
       <c r="E17">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>46026.666666666664</v>
+        <v>46029.666666666664</v>
       </c>
       <c r="B18">
-        <v>10.58</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="C18">
-        <v>31.24</v>
+        <v>31.25</v>
       </c>
       <c r="D18">
-        <v>11.7</v>
+        <v>11.72</v>
       </c>
       <c r="E18">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>46026.708333333336</v>
+        <v>46029.708333333336</v>
       </c>
       <c r="B19">
-        <v>10.54</v>
+        <v>10.08</v>
       </c>
       <c r="C19">
-        <v>31.24</v>
+        <v>31.26</v>
       </c>
       <c r="D19">
-        <v>11.6</v>
+        <v>11.62</v>
       </c>
       <c r="E19">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>46026.75</v>
+        <v>46029.75</v>
       </c>
       <c r="B20">
-        <v>10.61</v>
+        <v>10.18</v>
       </c>
       <c r="C20">
-        <v>31.26</v>
+        <v>31.16</v>
       </c>
       <c r="D20">
-        <v>11.32</v>
+        <v>11.74</v>
       </c>
       <c r="E20">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>46026.791666666664</v>
+        <v>46029.791666666664</v>
       </c>
       <c r="B21">
-        <v>10.64</v>
+        <v>10.1</v>
       </c>
       <c r="C21">
-        <v>31.3</v>
+        <v>31.21</v>
       </c>
       <c r="D21">
-        <v>11.04</v>
+        <v>11.62</v>
       </c>
       <c r="E21">
-        <v>4.4000000000000004</v>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>46029.833333333336</v>
+      </c>
+      <c r="B22">
+        <v>10.08</v>
+      </c>
+      <c r="C22">
+        <v>31.23</v>
+      </c>
+      <c r="D22">
+        <v>11.55</v>
+      </c>
+      <c r="E22">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>46029.875</v>
+      </c>
+      <c r="B23">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="C23">
+        <v>31.22</v>
+      </c>
+      <c r="D23">
+        <v>11.53</v>
+      </c>
+      <c r="E23">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>46029.916666666664</v>
+      </c>
+      <c r="B24">
+        <v>10.02</v>
+      </c>
+      <c r="C24">
+        <v>31.23</v>
+      </c>
+      <c r="D24">
+        <v>11.53</v>
+      </c>
+      <c r="E24">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>46029.958333333336</v>
+      </c>
+      <c r="B25">
+        <v>10.01</v>
+      </c>
+      <c r="C25">
+        <v>31.24</v>
+      </c>
+      <c r="D25">
+        <v>11.49</v>
+      </c>
+      <c r="E25">
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E21">
-    <sortCondition ref="A2:A21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E25">
+    <sortCondition ref="A2:A25"/>
   </sortState>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
